--- a/data/old data/NK elite old checklist.xlsx
+++ b/data/old data/NK elite old checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\old data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E981EA7-740C-40E8-B422-D4357AFF9AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A70F5-BFAE-4F48-BADF-B79877461F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="1100" windowWidth="18230" windowHeight="9100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="698">
   <si>
     <t>MOUID</t>
   </si>
@@ -2081,6 +2081,39 @@
   </si>
   <si>
     <t>김경호b</t>
+  </si>
+  <si>
+    <t>김명길a</t>
+  </si>
+  <si>
+    <t>김영일a</t>
+  </si>
+  <si>
+    <t>김영일b</t>
+  </si>
+  <si>
+    <t>김영철a</t>
+  </si>
+  <si>
+    <t>김윤혁a</t>
+  </si>
+  <si>
+    <t>김일철a</t>
+  </si>
+  <si>
+    <t>김형식a</t>
+  </si>
+  <si>
+    <t>리용철a</t>
+  </si>
+  <si>
+    <t>리용철b</t>
+  </si>
+  <si>
+    <t>박명철a</t>
+  </si>
+  <si>
+    <t>박성철a</t>
   </si>
 </sst>
 </file>
@@ -2445,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3580,7 +3613,7 @@
         <v>233</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>693</v>
       </c>
       <c r="C62" t="s">
         <v>137</v>
@@ -3825,7 +3858,7 @@
         <v>262</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>692</v>
       </c>
       <c r="C75" t="s">
         <v>163</v>
@@ -4043,7 +4076,7 @@
         <v>283</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>691</v>
       </c>
       <c r="C88" t="s">
         <v>187</v>
@@ -4361,7 +4394,7 @@
         <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>222</v>
+        <v>697</v>
       </c>
       <c r="C106" t="s">
         <v>222</v>
@@ -4478,7 +4511,7 @@
         <v>334</v>
       </c>
       <c r="B112" t="s">
-        <v>232</v>
+        <v>690</v>
       </c>
       <c r="C112" t="s">
         <v>232</v>
@@ -4714,7 +4747,7 @@
         <v>351</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>688</v>
       </c>
       <c r="C125" t="s">
         <v>257</v>
@@ -5084,7 +5117,7 @@
         <v>384</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>694</v>
       </c>
       <c r="C145" t="s">
         <v>296</v>
@@ -5603,7 +5636,7 @@
         <v>424</v>
       </c>
       <c r="B172" t="s">
-        <v>349</v>
+        <v>696</v>
       </c>
       <c r="C172" t="s">
         <v>349</v>
@@ -5840,7 +5873,7 @@
         <v>441</v>
       </c>
       <c r="B184" t="s">
-        <v>257</v>
+        <v>689</v>
       </c>
       <c r="C184" t="s">
         <v>257</v>
@@ -6808,7 +6841,7 @@
         <v>602</v>
       </c>
       <c r="B242" t="s">
-        <v>296</v>
+        <v>695</v>
       </c>
       <c r="C242" t="s">
         <v>296</v>
@@ -7684,7 +7717,7 @@
         <v>653</v>
       </c>
       <c r="B293" t="s">
-        <v>552</v>
+        <v>687</v>
       </c>
       <c r="C293" t="s">
         <v>552</v>

--- a/data/old data/NK elite old checklist.xlsx
+++ b/data/old data/NK elite old checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\old data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A70F5-BFAE-4F48-BADF-B79877461F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7934F-81CF-4217-A614-D52C9CB1D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="970" yWindow="1100" windowWidth="18230" windowHeight="9100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2478,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>

--- a/data/old data/NK elite old checklist.xlsx
+++ b/data/old data/NK elite old checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\old data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7934F-81CF-4217-A614-D52C9CB1D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E113CEE6-B58A-4F3A-98F6-F960A359E168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="1100" windowWidth="18230" windowHeight="9100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="700">
   <si>
     <t>MOUID</t>
   </si>
@@ -2114,6 +2114,12 @@
   </si>
   <si>
     <t>박성철a</t>
+  </si>
+  <si>
+    <t>김완수a</t>
+  </si>
+  <si>
+    <t>김완수b</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2182,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2478,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4348,7 +4354,7 @@
         <v>320</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>698</v>
       </c>
       <c r="C104" t="s">
         <v>217</v>
@@ -7951,7 +7957,7 @@
         <v>666</v>
       </c>
       <c r="B305" t="s">
-        <v>217</v>
+        <v>699</v>
       </c>
       <c r="C305" t="s">
         <v>217</v>
